--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,12 +434,34 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Italian</t>
+          <t>Finnish</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
           <t>URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>129° - Weetabix cereal 48 pack £3.50 at Asda</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Finnish</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>129 ° - Weetabix-muroja 48 kpl 3,50 puntaa Asdassa</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>https://www.hotukdeals.com/deals/rollback-ps350-weetabix-cereal-at-asda-3571010</t>
         </is>
       </c>
     </row>

--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,7 +434,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Finnish</t>
+          <t>Danish</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -446,22 +446,66 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>129° - Weetabix cereal 48 pack £3.50 at Asda</t>
+          <t>UK will ban mobile carriers from selling locked handsets in 2021</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Finnish</t>
+          <t>Danish</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>129 ° - Weetabix-muroja 48 kpl 3,50 puntaa Asdassa</t>
+          <t>Storbritannien forbyder mobiloperatører at sælge låste håndsæt i 2021</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.hotukdeals.com/deals/rollback-ps350-weetabix-cereal-at-asda-3571010</t>
+          <t>https://www.engadget.com/uk-bans-mobile-companies-from-selling-locked-handsets-103533257.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Tesco fast tracks emissions target with solar push - Reuters UK</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Danish</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Tesco sporer hurtigt emissionsmål med solskub - Reuters UK</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://uk.reuters.com/article/uk-tesco-emissions-idUKKBN27T001</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Asda, Tesco, Sainsbury's and Aldi warn shoppers what they can buy during second lockdown - Kent Live</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Danish</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Asda, Tesco, Sainsbury og Aldi advarer shoppere om, hvad de kan købe under anden lockdown - Kent Live</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://www.kentlive.news/whats-on/shopping/asda-tesco-sainsburys-aldi-warn-4680621</t>
         </is>
       </c>
     </row>

--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,20 +424,10 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>English</t>
+          <t>Headline Title</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
-        <is>
-          <t>Translation</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Danish</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
         <is>
           <t>URL</t>
         </is>
@@ -446,66 +436,240 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>UK will ban mobile carriers from selling locked handsets in 2021</t>
+          <t>France starts collecting tax on tech giants</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Danish</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Storbritannien forbyder mobiloperatører at sælge låste håndsæt i 2021</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>https://www.engadget.com/uk-bans-mobile-companies-from-selling-locked-handsets-103533257.html</t>
+          <t>http://techcrunch.com/2020/11/25/france-starts-collecting-tax-on-tech-giants/</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Tesco fast tracks emissions target with solar push - Reuters UK</t>
+          <t>France to Tech Giants: Pay Up, Buttercup</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Danish</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Tesco sporer hurtigt emissionsmål med solskub - Reuters UK</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>https://uk.reuters.com/article/uk-tesco-emissions-idUKKBN27T001</t>
+          <t>https://gizmodo.com/france-to-tech-giants-pay-up-buttercup-1845757236</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Asda, Tesco, Sainsbury's and Aldi warn shoppers what they can buy during second lockdown - Kent Live</t>
+          <t>Why France may ban discrimination against accents</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Danish</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Asda, Tesco, Sainsbury og Aldi advarer shoppere om, hvad de kan købe under anden lockdown - Kent Live</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://www.kentlive.news/whats-on/shopping/asda-tesco-sainsburys-aldi-warn-4680621</t>
+          <t>https://www.bbc.co.uk/news/world-europe-55069048</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Coronavirus: France replaces lockdown with evening curfew</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.bbc.co.uk/news/world-europe-55324422</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>France police security bill: Protests turn violent again</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.bbc.co.uk/news/world-europe-55201993</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Where Are Your Papers? A New Yorker Goes Home to Locked-Down France</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.nytimes.com/2020/12/10/us/france-lockdown-compare-new-york.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Patrick Vieira: Nice sack manager after two and a half years in charge</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.bbc.co.uk/sport/football/55187481</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Covid: Students and retirees form long-distance friendships</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.bbc.co.uk/news/world-europe-55235378</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Charlie Hebdo: Fourteen guilty in 2015 Paris terror attacks trial</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.bbc.co.uk/news/world-europe-55336094</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Trial of ex-president Sarkozy a landmark for France</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://www.bbc.co.uk/news/world-europe-55015479</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>France Islam: Muslims face state pressure to embrace values</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://www.bbc.co.uk/news/world-europe-55132098</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Radio France Internationale publishes obituaries of people still alive</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://www.bbc.co.uk/news/world-europe-54965098</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>France Islam: French cabinet backs law targeting extremism</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://www.bbc.co.uk/news/world-europe-55253832</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Lockdowns Aren’t Funny. But You’ve Still Got to Laugh.</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://www.nytimes.com/2020/11/19/theater/france-lockdown-comedy.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Obituary: Valéry Giscard DEstaing</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://www.bbc.co.uk/news/world-europe-13062449</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>French police seize 10 tigers after mistreatment complaint</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://www.bbc.co.uk/news/world-europe-55337455</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>French rugby legend Dominici dies in park tragedy</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://www.bbc.co.uk/news/55056643</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Ireland and Scotland in same 2023 World Cup pool as South Africa</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://www.bbc.co.uk/sport/rugby-union/55301480</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Man Citys Torres hits hat-trick as Spain put six past Germany to reach Nations League finals</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://www.bbc.co.uk/sport/football/54979319</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Wasps hooker Barbeary called up to England squad</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://www.bbc.co.uk/sport/rugby-union/55139252</t>
         </is>
       </c>
     </row>

--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -436,240 +436,240 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>France starts collecting tax on tech giants</t>
+          <t>Is the New Visa Bitcoin Rewards Card Worth It?</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://techcrunch.com/2020/11/25/france-starts-collecting-tax-on-tech-giants/</t>
+          <t>https://twocents.lifehacker.com/is-the-new-visa-bitcoin-rewards-card-worth-it-1845803159</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>France to Tech Giants: Pay Up, Buttercup</t>
+          <t>Bitcoin passes $20k and reaches all-time high</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://gizmodo.com/france-to-tech-giants-pay-up-buttercup-1845757236</t>
+          <t>http://techcrunch.com/2020/12/16/bitcoin-passes-20k-and-reaches-all-time-high/</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Why France may ban discrimination against accents</t>
+          <t>Bitcoin Blows Past $20,000 Milestone</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://www.bbc.co.uk/news/world-europe-55069048</t>
+          <t>https://gizmodo.com/bitcoin-blows-past-20-000-milestone-1845894176</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Coronavirus: France replaces lockdown with evening curfew</t>
+          <t>Is rising usage driving crypto’s recent price boom?</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://www.bbc.co.uk/news/world-europe-55324422</t>
+          <t>http://techcrunch.com/2020/12/17/is-rising-usage-driving-cryptos-recent-price-boom/</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>France police security bill: Protests turn violent again</t>
+          <t>Bitcoin is flirting with $20,000 again. How high will it go this time?</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://www.bbc.co.uk/news/world-europe-55201993</t>
+          <t>https://mashable.com/article/bitcoin-20000/</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Where Are Your Papers? A New Yorker Goes Home to Locked-Down France</t>
+          <t>You can now spend Chinas digital currency at an online store</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://www.nytimes.com/2020/12/10/us/france-lockdown-compare-new-york.html</t>
+          <t>https://www.engadget.com/jd-com-supports-china-digital-currency-223718682.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Patrick Vieira: Nice sack manager after two and a half years in charge</t>
+          <t>Bitcoin Could Hit $20K Again But This Time No One Cares</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://www.bbc.co.uk/sport/football/55187481</t>
+          <t>https://gizmodo.com/bitcoin-could-hit-20k-again-but-this-time-no-one-cares-1845757159</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Covid: Students and retirees form long-distance friendships</t>
+          <t>Bitcoin hits all-time high rising above $20,000</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://www.bbc.co.uk/news/world-europe-55235378</t>
+          <t>https://www.bbc.co.uk/news/business-55343657</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Charlie Hebdo: Fourteen guilty in 2015 Paris terror attacks trial</t>
+          <t>With investors expecting a Latin American cryptocurrency boom, Mexico’s Bitso raises $62 million</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://www.bbc.co.uk/news/world-europe-55336094</t>
+          <t>http://techcrunch.com/2020/12/09/with-investors-expecting-a-latin-american-cryptocurrency-boom-mexicos-bitso-raises-62-million/</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Trial of ex-president Sarkozy a landmark for France</t>
+          <t>As Crypto comes back, Binance-backed Injective Protocol launches Testnet for its DeFi trading platform</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://www.bbc.co.uk/news/world-europe-55015479</t>
+          <t>http://techcrunch.com/2020/12/03/as-crypto-comes-back-binance-backed-injective-protocol-launches-testnet-for-its-defi-trading-platform/</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>France Islam: Muslims face state pressure to embrace values</t>
+          <t>Bitcoin soars after BlackRock says it could replace gold</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://www.bbc.co.uk/news/world-europe-55132098</t>
+          <t>https://www.cnn.com/2020/11/20/investing/bitcoin-prices-gold-blackrock/index.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Radio France Internationale publishes obituaries of people still alive</t>
+          <t>Online Shopping, Virus in Winter, Stock Market: Your Monday Evening Briefing</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://www.bbc.co.uk/news/world-europe-54965098</t>
+          <t>https://www.nytimes.com/2020/11/30/briefing/online-shopping-virus-in-winter-stock-market.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>France Islam: French cabinet backs law targeting extremism</t>
+          <t>Months later, the great Twitter hack still boggles my mind</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://www.bbc.co.uk/news/world-europe-55253832</t>
+          <t>https://www.theverge.com/22163643/twitter-hack-bitcoin-scam-july-2020-elon-musk</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Lockdowns Aren’t Funny. But You’ve Still Got to Laugh.</t>
+          <t>Bitcoin price soars above $18,000, the highest level since 2017</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://www.nytimes.com/2020/11/19/theater/france-lockdown-comedy.html</t>
+          <t>https://arstechnica.com/tech-policy/2020/11/bitcoin-price-soars-above-18000-the-highest-level-since-2017/</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Obituary: Valéry Giscard DEstaing</t>
+          <t>Bitcoin price passes $20,000, setting new record</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://www.bbc.co.uk/news/world-europe-13062449</t>
+          <t>https://arstechnica.com/tech-policy/2020/12/bitcoin-price-passes-20000-setting-new-record/</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>French police seize 10 tigers after mistreatment complaint</t>
+          <t>Bitcoin breaks above $20,000 for first time - Reuters</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://www.bbc.co.uk/news/world-europe-55337455</t>
+          <t>https://www.reuters.com/article/crypto-currency-idUSKBN28Q1UI</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>French rugby legend Dominici dies in park tragedy</t>
+          <t>Bitcoin breaks above $20,000 for first time - Reuters India</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://www.bbc.co.uk/news/55056643</t>
+          <t>https://in.reuters.com/article/crypto-currency-idINKBN28Q1W8</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Ireland and Scotland in same 2023 World Cup pool as South Africa</t>
+          <t>Bitcoin hits nearly three-year peak, homes in on record - Reuters.com</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://www.bbc.co.uk/sport/rugby-union/55301480</t>
+          <t>https://uk.reuters.com/article/us-crypto-currencies-idUSKBN27X2PQ</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Man Citys Torres hits hat-trick as Spain put six past Germany to reach Nations League finals</t>
+          <t>Cryptocurrency: Bitcoin hits three-year high as investors jump in - BBC News</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://www.bbc.co.uk/sport/football/54979319</t>
+          <t>https://www.bbc.com/news/business-54982604</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Wasps hooker Barbeary called up to England squad</t>
+          <t>How American investors are buying bitcoin - Reuters.com</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://www.bbc.co.uk/sport/rugby-union/55139252</t>
+          <t>https://www.reuters.com/video/watch/idOVD7GKP6Z</t>
         </is>
       </c>
     </row>
